--- a/Industry/201612-201908/HKD/MILLION/Analysis_111_23 - Sporting Goods_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_111_23 - Sporting Goods_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="2688" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -35633,6 +35634,2578 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="5" width="10"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="n">
+        <v>27069.133</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28408.458</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.948</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18929.747</v>
+      </c>
+      <c r="F2" t="n">
+        <v>29203.598</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.799</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19307.201</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.994</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7077.235</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6958.556</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.677</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4472.353</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6688.745</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-3.877</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3951.462</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-11.647</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26.145</v>
+      </c>
+      <c r="K3" t="n">
+        <v>24.495</v>
+      </c>
+      <c r="L3" t="n">
+        <v>23.626</v>
+      </c>
+      <c r="M3" t="n">
+        <v>22.904</v>
+      </c>
+      <c r="N3" t="n">
+        <v>20.466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4111.85</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4689.289</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.043</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3236.499</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5042.602</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.534</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3213.97</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.696</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16.507</v>
+      </c>
+      <c r="L4" t="n">
+        <v>17.097</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17.267</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16.646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1622.518</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1587.823</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2.138</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1140.33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1903.276</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.867</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1713.523</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50.266</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.994</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.589</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.024</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.517</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2909.899</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2784.63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.305</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1858.459</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2725.836</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2.111</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1636.391</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-11.949</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.802</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9.818</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.334</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.476000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1230.557</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1245.529</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.217</v>
+      </c>
+      <c r="E7" t="n">
+        <v>893.324</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1362.309</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.375999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>929.273</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.024</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.546</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.384</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.719</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.665</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1151.689</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1395.841</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.199</v>
+      </c>
+      <c r="E8" t="n">
+        <v>969.131</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1441.65</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.282</v>
+      </c>
+      <c r="H8" t="n">
+        <v>892.575</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-7.899</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.255</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.913</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.937</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1273.904</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1268.946</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.389</v>
+      </c>
+      <c r="E9" t="n">
+        <v>711.67</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1217.703</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-4.038</v>
+      </c>
+      <c r="H9" t="n">
+        <v>849.54</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19.373</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.706</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.467</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" t="n">
+        <v>826.838</v>
+      </c>
+      <c r="C10" t="n">
+        <v>769.154</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-6.976</v>
+      </c>
+      <c r="E10" t="n">
+        <v>532.38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>910.523</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="H10" t="n">
+        <v>661.852</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24.319</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.055</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.707</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.812</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" t="n">
+        <v>164.51</v>
+      </c>
+      <c r="C11" t="n">
+        <v>297.493</v>
+      </c>
+      <c r="D11" t="n">
+        <v>80.836</v>
+      </c>
+      <c r="E11" t="n">
+        <v>341.135</v>
+      </c>
+      <c r="F11" t="n">
+        <v>562.029</v>
+      </c>
+      <c r="G11" t="n">
+        <v>88.922</v>
+      </c>
+      <c r="H11" t="n">
+        <v>592.967</v>
+      </c>
+      <c r="I11" t="n">
+        <v>73.822</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.802</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" t="n">
+        <v>416.483</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1099.195</v>
+      </c>
+      <c r="D12" t="n">
+        <v>163.923</v>
+      </c>
+      <c r="E12" t="n">
+        <v>651.147</v>
+      </c>
+      <c r="F12" t="n">
+        <v>913.566</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-16.888</v>
+      </c>
+      <c r="H12" t="n">
+        <v>587.395</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-9.791</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.539</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.869</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.128</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" t="n">
+        <v>939.67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>926.827</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.367</v>
+      </c>
+      <c r="E13" t="n">
+        <v>581.148</v>
+      </c>
+      <c r="F13" t="n">
+        <v>910.501</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1.761</v>
+      </c>
+      <c r="H13" t="n">
+        <v>566.367</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2.543</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.471</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.263</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" t="n">
+        <v>191.047</v>
+      </c>
+      <c r="C14" t="n">
+        <v>162.489</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-14.948</v>
+      </c>
+      <c r="E14" t="n">
+        <v>319.538</v>
+      </c>
+      <c r="F14" t="n">
+        <v>541.726</v>
+      </c>
+      <c r="G14" t="n">
+        <v>233.392</v>
+      </c>
+      <c r="H14" t="n">
+        <v>565.577</v>
+      </c>
+      <c r="I14" t="n">
+        <v>76.998</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="n">
+        <v>679.712</v>
+      </c>
+      <c r="C15" t="n">
+        <v>732.4109999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.753</v>
+      </c>
+      <c r="E15" t="n">
+        <v>481.052</v>
+      </c>
+      <c r="F15" t="n">
+        <v>723.274</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1.247</v>
+      </c>
+      <c r="H15" t="n">
+        <v>496.538</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.511</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.578</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.541</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.477</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" t="n">
+        <v>628.779</v>
+      </c>
+      <c r="C16" t="n">
+        <v>714.199</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13.585</v>
+      </c>
+      <c r="E16" t="n">
+        <v>443.226</v>
+      </c>
+      <c r="F16" t="n">
+        <v>631.777</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-11.54</v>
+      </c>
+      <c r="H16" t="n">
+        <v>374.046</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-15.608</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.323</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.514</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.341</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.163</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" t="n">
+        <v>404.489</v>
+      </c>
+      <c r="C17" t="n">
+        <v>388.952</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-3.841</v>
+      </c>
+      <c r="E17" t="n">
+        <v>264.512</v>
+      </c>
+      <c r="F17" t="n">
+        <v>427.43</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.893000000000001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>301.279</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.369</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.397</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.464</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" t="n">
+        <v>510.53</v>
+      </c>
+      <c r="C18" t="n">
+        <v>464.574</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-9.002000000000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>311.32</v>
+      </c>
+      <c r="F18" t="n">
+        <v>530.96</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="H18" t="n">
+        <v>287.426</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-7.675</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.645</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" t="n">
+        <v>222.686</v>
+      </c>
+      <c r="C19" t="n">
+        <v>217.899</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2.149</v>
+      </c>
+      <c r="E19" t="n">
+        <v>195.368</v>
+      </c>
+      <c r="F19" t="n">
+        <v>327.747</v>
+      </c>
+      <c r="G19" t="n">
+        <v>50.412</v>
+      </c>
+      <c r="H19" t="n">
+        <v>258.837</v>
+      </c>
+      <c r="I19" t="n">
+        <v>32.487</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" t="n">
+        <v>254.671</v>
+      </c>
+      <c r="C20" t="n">
+        <v>219.395</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-13.852</v>
+      </c>
+      <c r="E20" t="n">
+        <v>177.562</v>
+      </c>
+      <c r="F20" t="n">
+        <v>308.675</v>
+      </c>
+      <c r="G20" t="n">
+        <v>40.694</v>
+      </c>
+      <c r="H20" t="n">
+        <v>176.382</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.664</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.057</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" t="n">
+        <v>219.53</v>
+      </c>
+      <c r="C21" t="n">
+        <v>200.064</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-8.867000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>149.568</v>
+      </c>
+      <c r="F21" t="n">
+        <v>243.254</v>
+      </c>
+      <c r="G21" t="n">
+        <v>21.588</v>
+      </c>
+      <c r="H21" t="n">
+        <v>157.023</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.984</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" t="n">
+        <v>190.633</v>
+      </c>
+      <c r="C22" t="n">
+        <v>153.62</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-19.416</v>
+      </c>
+      <c r="E22" t="n">
+        <v>107.266</v>
+      </c>
+      <c r="F22" t="n">
+        <v>134.484</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-12.457</v>
+      </c>
+      <c r="H22" t="n">
+        <v>131.221</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22.332</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" t="n">
+        <v>225.424</v>
+      </c>
+      <c r="C23" t="n">
+        <v>232.059</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="E23" t="n">
+        <v>132.603</v>
+      </c>
+      <c r="F23" t="n">
+        <v>216.974</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-6.501</v>
+      </c>
+      <c r="H23" t="n">
+        <v>118.451</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-10.672</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" t="n">
+        <v>135.277</v>
+      </c>
+      <c r="C24" t="n">
+        <v>123.828</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-8.462999999999999</v>
+      </c>
+      <c r="E24" t="n">
+        <v>100.429</v>
+      </c>
+      <c r="F24" t="n">
+        <v>143.876</v>
+      </c>
+      <c r="G24" t="n">
+        <v>16.191</v>
+      </c>
+      <c r="H24" t="n">
+        <v>116.282</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15.786</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" t="n">
+        <v>269.263</v>
+      </c>
+      <c r="C25" t="n">
+        <v>221.77</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-17.638</v>
+      </c>
+      <c r="E25" t="n">
+        <v>149.976</v>
+      </c>
+      <c r="F25" t="n">
+        <v>201.228</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-9.263</v>
+      </c>
+      <c r="H25" t="n">
+        <v>92.011</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-38.65</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" t="n">
+        <v>136.104</v>
+      </c>
+      <c r="C26" t="n">
+        <v>136.78</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="E26" t="n">
+        <v>70.52</v>
+      </c>
+      <c r="F26" t="n">
+        <v>106.945</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-21.813</v>
+      </c>
+      <c r="H26" t="n">
+        <v>77.56</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9.983000000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" t="n">
+        <v>94.107</v>
+      </c>
+      <c r="C27" t="n">
+        <v>88.65300000000001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-5.796</v>
+      </c>
+      <c r="E27" t="n">
+        <v>63.381</v>
+      </c>
+      <c r="F27" t="n">
+        <v>90.62</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H27" t="n">
+        <v>75.53</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19.169</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" t="n">
+        <v>177.424</v>
+      </c>
+      <c r="C28" t="n">
+        <v>519.6660000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>192.895</v>
+      </c>
+      <c r="E28" t="n">
+        <v>103.881</v>
+      </c>
+      <c r="F28" t="n">
+        <v>167.34</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-67.798</v>
+      </c>
+      <c r="H28" t="n">
+        <v>64.962</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-37.465</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B29" t="n">
+        <v>83.803</v>
+      </c>
+      <c r="C29" t="n">
+        <v>77.175</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-7.91</v>
+      </c>
+      <c r="E29" t="n">
+        <v>54.613</v>
+      </c>
+      <c r="F29" t="n">
+        <v>96.40600000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>24.919</v>
+      </c>
+      <c r="H29" t="n">
+        <v>49.125</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-10.05</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" t="n">
+        <v>109.929</v>
+      </c>
+      <c r="C30" t="n">
+        <v>80.249</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-26.999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>33.78</v>
+      </c>
+      <c r="F30" t="n">
+        <v>50.407</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-37.187</v>
+      </c>
+      <c r="H30" t="n">
+        <v>39.661</v>
+      </c>
+      <c r="I30" t="n">
+        <v>17.408</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" t="n">
+        <v>78.399</v>
+      </c>
+      <c r="C31" t="n">
+        <v>66.52200000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-15.15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>39.286</v>
+      </c>
+      <c r="F31" t="n">
+        <v>61.881</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-6.976</v>
+      </c>
+      <c r="H31" t="n">
+        <v>37.428</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-4.729</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B32" t="n">
+        <v>81.251</v>
+      </c>
+      <c r="C32" t="n">
+        <v>65.742</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-19.088</v>
+      </c>
+      <c r="E32" t="n">
+        <v>40.848</v>
+      </c>
+      <c r="F32" t="n">
+        <v>67.29600000000001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="H32" t="n">
+        <v>30.745</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-24.733</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B33" t="n">
+        <v>28.927</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31.832</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10.043</v>
+      </c>
+      <c r="E33" t="n">
+        <v>23.996</v>
+      </c>
+      <c r="F33" t="n">
+        <v>35.365</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11.096</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21.774</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-9.259</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B34" t="n">
+        <v>17.108</v>
+      </c>
+      <c r="C34" t="n">
+        <v>27.782</v>
+      </c>
+      <c r="D34" t="n">
+        <v>62.391</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13.812</v>
+      </c>
+      <c r="F34" t="n">
+        <v>19.992</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-28.041</v>
+      </c>
+      <c r="H34" t="n">
+        <v>21.534</v>
+      </c>
+      <c r="I34" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8.433</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.756</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-8.037000000000001</v>
+      </c>
+      <c r="E35" t="n">
+        <v>13.608</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14.774</v>
+      </c>
+      <c r="G35" t="n">
+        <v>90.49299999999999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>21.104</v>
+      </c>
+      <c r="I35" t="n">
+        <v>55.084</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B36" t="n">
+        <v>114.743</v>
+      </c>
+      <c r="C36" t="n">
+        <v>43.598</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-62.004</v>
+      </c>
+      <c r="E36" t="n">
+        <v>25.169</v>
+      </c>
+      <c r="F36" t="n">
+        <v>39.275</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-9.916</v>
+      </c>
+      <c r="H36" t="n">
+        <v>19.587</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-22.177</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B37" t="n">
+        <v>68.601</v>
+      </c>
+      <c r="C37" t="n">
+        <v>54.991</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-19.84</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35.568</v>
+      </c>
+      <c r="F37" t="n">
+        <v>47.739</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-13.186</v>
+      </c>
+      <c r="H37" t="n">
+        <v>17.587</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-50.554</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" t="n">
+        <v>31.306</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20.128</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-35.706</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20.519</v>
+      </c>
+      <c r="F38" t="n">
+        <v>31.408</v>
+      </c>
+      <c r="G38" t="n">
+        <v>56.044</v>
+      </c>
+      <c r="H38" t="n">
+        <v>16.234</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-20.885</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38.083</v>
+      </c>
+      <c r="C39" t="n">
+        <v>35.417</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-7.001</v>
+      </c>
+      <c r="E39" t="n">
+        <v>25.445</v>
+      </c>
+      <c r="F39" t="n">
+        <v>32.413</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-8.478999999999999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>14.704</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-42.211</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" t="n">
+        <v>23.665</v>
+      </c>
+      <c r="C40" t="n">
+        <v>16.177</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-31.641</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F40" t="n">
+        <v>17.558</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8.536</v>
+      </c>
+      <c r="H40" t="n">
+        <v>12.977</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.882999999999999</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B41" t="n">
+        <v>21.023</v>
+      </c>
+      <c r="C41" t="n">
+        <v>17.912</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-14.797</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10.037</v>
+      </c>
+      <c r="F41" t="n">
+        <v>15.918</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-11.13</v>
+      </c>
+      <c r="H41" t="n">
+        <v>12.876</v>
+      </c>
+      <c r="I41" t="n">
+        <v>28.285</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B42" t="n">
+        <v>35.886</v>
+      </c>
+      <c r="C42" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-18.352</v>
+      </c>
+      <c r="E42" t="n">
+        <v>18.651</v>
+      </c>
+      <c r="F42" t="n">
+        <v>24.736</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-15.58</v>
+      </c>
+      <c r="H42" t="n">
+        <v>12.629</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-32.289</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B43" t="n">
+        <v>17.052</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12.642</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-25.862</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10.137</v>
+      </c>
+      <c r="F43" t="n">
+        <v>14.565</v>
+      </c>
+      <c r="G43" t="n">
+        <v>15.208</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12.539</v>
+      </c>
+      <c r="I43" t="n">
+        <v>23.691</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" t="n">
+        <v>48.969</v>
+      </c>
+      <c r="C44" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-29.323</v>
+      </c>
+      <c r="E44" t="n">
+        <v>20.947</v>
+      </c>
+      <c r="F44" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-15.081</v>
+      </c>
+      <c r="H44" t="n">
+        <v>12.173</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-41.885</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B45" t="n">
+        <v>14.004</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10.226</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-26.983</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7.569</v>
+      </c>
+      <c r="F45" t="n">
+        <v>11.144</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8.981</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10.241</v>
+      </c>
+      <c r="I45" t="n">
+        <v>35.307</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20.593</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11.617</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-43.588</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.357</v>
+      </c>
+      <c r="F46" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10.186</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9.824</v>
+      </c>
+      <c r="I46" t="n">
+        <v>54.534</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8.103</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9.669</v>
+      </c>
+      <c r="D47" t="n">
+        <v>19.333</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10.503</v>
+      </c>
+      <c r="F47" t="n">
+        <v>14.036</v>
+      </c>
+      <c r="G47" t="n">
+        <v>45.167</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9.544</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-9.135999999999999</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19.479</v>
+      </c>
+      <c r="C48" t="n">
+        <v>78.55200000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>303.272</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.255</v>
+      </c>
+      <c r="F48" t="n">
+        <v>12.254</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-84.40000000000001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>9.257999999999999</v>
+      </c>
+      <c r="I48" t="n">
+        <v>117.581</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20.368</v>
+      </c>
+      <c r="C49" t="n">
+        <v>18.635</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-8.507</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10.675</v>
+      </c>
+      <c r="F49" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-14.623</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7.791</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-27.013</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8.743</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5.714</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-34.646</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5.847</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9.247999999999999</v>
+      </c>
+      <c r="G50" t="n">
+        <v>61.85</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7.932</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B51" t="n">
+        <v>46.806</v>
+      </c>
+      <c r="C51" t="n">
+        <v>39.502</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-15.606</v>
+      </c>
+      <c r="E51" t="n">
+        <v>16.178</v>
+      </c>
+      <c r="F51" t="n">
+        <v>24.627</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-37.657</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.434</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-72.593</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="D52" t="n">
+        <v>199.829</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.434</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.701</v>
+      </c>
+      <c r="I52" t="n">
+        <v>376.513</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5.774</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-79.998</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.472</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="G53" t="n">
+        <v>379.717</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.746</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-38.611</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.346</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="D54" t="n">
+        <v>75.812</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-55.495</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="I54" t="n">
+        <v>88.961</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B55" t="n">
+        <v>48.359</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-93.434</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.776</v>
+      </c>
+      <c r="F55" t="n">
+        <v>17.407</v>
+      </c>
+      <c r="G55" t="n">
+        <v>448.225</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-86.86499999999999</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="D56" t="n">
+        <v>73.48099999999999</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="G56" t="n">
+        <v>146.634</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-83.786</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.446</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.979</v>
+      </c>
+      <c r="D57" t="n">
+        <v>62.698</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-65.062</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-75.44799999999999</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-98.565</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="G58" t="n">
+        <v>16069.552</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="9"/>
     <col bestFit="1" customWidth="1" max="3" min="3" width="10"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
